--- a/results/mp/logistic/corona/confidence/168/0.1/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/168/0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,33 +40,27 @@
     <t>name</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
+    <t>emergency</t>
+  </si>
+  <si>
     <t>low</t>
   </si>
   <si>
     <t>no</t>
   </si>
   <si>
-    <t>the</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
@@ -76,85 +70,94 @@
     <t>free</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
-    <t>happy</t>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>support</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>positive</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>confidence</t>
+  </si>
+  <si>
     <t>won</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
     <t>safe</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>fresh</t>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>heroes</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
+    <t>friends</t>
+  </si>
+  <si>
     <t>join</t>
   </si>
   <si>
-    <t>interesting</t>
+    <t>like</t>
   </si>
   <si>
     <t>save</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
     <t>relief</t>
   </si>
   <si>
-    <t>like</t>
+    <t>well</t>
+  </si>
+  <si>
+    <t>please</t>
   </si>
   <si>
     <t>gt</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>well</t>
+    <t>hope</t>
   </si>
   <si>
     <t>help</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
     <t>share</t>
+  </si>
+  <si>
+    <t>alert</t>
   </si>
   <si>
     <t>care</t>
@@ -521,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q34"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -529,10 +532,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -590,13 +593,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7586206896551724</v>
+        <v>0.7328767123287672</v>
       </c>
       <c r="C3">
-        <v>22</v>
+        <v>214</v>
       </c>
       <c r="D3">
-        <v>22</v>
+        <v>214</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -608,19 +611,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K3">
-        <v>0.9347826086956522</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -632,7 +635,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -640,13 +643,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7534246575342466</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="C4">
-        <v>220</v>
+        <v>20</v>
       </c>
       <c r="D4">
-        <v>220</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -658,19 +661,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K4">
-        <v>0.925</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="L4">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M4">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -682,7 +685,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -690,13 +693,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.5882352941176471</v>
+        <v>0.4232804232804233</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -708,19 +711,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K5">
-        <v>0.9152542372881356</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L5">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="M5">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -732,7 +735,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -740,13 +743,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.5263157894736842</v>
+        <v>0.3217054263565892</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>166</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>166</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -758,19 +761,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>18</v>
+        <v>350</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K6">
-        <v>0.8660714285714286</v>
+        <v>0.8983050847457628</v>
       </c>
       <c r="L6">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="M6">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -782,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -790,13 +793,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.4126984126984127</v>
+        <v>0.28</v>
       </c>
       <c r="C7">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="D7">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -808,19 +811,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>111</v>
+        <v>54</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K7">
-        <v>0.8461538461538461</v>
+        <v>0.875</v>
       </c>
       <c r="L7">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="M7">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -832,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -840,13 +843,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.3313953488372093</v>
+        <v>0.174496644295302</v>
       </c>
       <c r="C8">
-        <v>171</v>
+        <v>26</v>
       </c>
       <c r="D8">
-        <v>171</v>
+        <v>26</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -858,19 +861,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>345</v>
+        <v>123</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K8">
-        <v>0.8459530026109661</v>
+        <v>0.8484848484848485</v>
       </c>
       <c r="L8">
-        <v>324</v>
+        <v>28</v>
       </c>
       <c r="M8">
-        <v>324</v>
+        <v>28</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -882,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>59</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -890,13 +893,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.1677852348993289</v>
+        <v>0.1083333333333333</v>
       </c>
       <c r="C9">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="D9">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -908,145 +911,97 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>124</v>
+        <v>321</v>
       </c>
       <c r="J9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9">
+        <v>0.8301886792452831</v>
+      </c>
+      <c r="L9">
+        <v>88</v>
+      </c>
+      <c r="M9">
+        <v>88</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="J10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10">
+        <v>0.8276762402088773</v>
+      </c>
+      <c r="L10">
+        <v>317</v>
+      </c>
+      <c r="M10">
+        <v>317</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="J11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K9">
-        <v>0.8103448275862069</v>
-      </c>
-      <c r="L9">
-        <v>47</v>
-      </c>
-      <c r="M9">
-        <v>47</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>0.1194444444444445</v>
-      </c>
-      <c r="C10">
-        <v>43</v>
-      </c>
-      <c r="D10">
-        <v>43</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>317</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K10">
+      <c r="K11">
         <v>0.8055555555555556</v>
       </c>
-      <c r="L10">
+      <c r="L11">
         <v>29</v>
       </c>
-      <c r="M10">
+      <c r="M11">
         <v>29</v>
       </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
         <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>0.003881234232485931</v>
-      </c>
-      <c r="C11">
-        <v>20</v>
-      </c>
-      <c r="D11">
-        <v>32</v>
-      </c>
-      <c r="E11">
-        <v>0.38</v>
-      </c>
-      <c r="F11">
-        <v>0.62</v>
-      </c>
-      <c r="G11" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>5133</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K11">
-        <v>0.8048780487804879</v>
-      </c>
-      <c r="L11">
-        <v>66</v>
-      </c>
-      <c r="M11">
-        <v>66</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K12">
-        <v>0.7948717948717948</v>
+        <v>0.79375</v>
       </c>
       <c r="L12">
-        <v>31</v>
+        <v>127</v>
       </c>
       <c r="M12">
-        <v>31</v>
+        <v>127</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1058,21 +1013,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K13">
-        <v>0.7887323943661971</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L13">
-        <v>112</v>
+        <v>46</v>
       </c>
       <c r="M13">
-        <v>112</v>
+        <v>46</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1084,21 +1039,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K14">
-        <v>0.7735849056603774</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="L14">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="M14">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1110,21 +1065,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15">
-        <v>0.765625</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L15">
-        <v>98</v>
+        <v>28</v>
       </c>
       <c r="M15">
-        <v>98</v>
+        <v>28</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1136,21 +1091,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>30</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K16">
-        <v>0.7625</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L16">
-        <v>122</v>
+        <v>30</v>
       </c>
       <c r="M16">
-        <v>122</v>
+        <v>30</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1162,21 +1117,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>38</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K17">
         <v>0.75</v>
       </c>
       <c r="L17">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="M17">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1188,21 +1143,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>9</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K18">
-        <v>0.7083333333333334</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="L18">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M18">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1214,21 +1169,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K19">
-        <v>0.6984126984126984</v>
+        <v>0.7112676056338029</v>
       </c>
       <c r="L19">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="M19">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1240,21 +1195,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>19</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K20">
-        <v>0.6976744186046512</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L20">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M20">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1266,21 +1221,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K21">
-        <v>0.696969696969697</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="L21">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="M21">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1292,21 +1247,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K22">
-        <v>0.6857142857142857</v>
+        <v>0.6825396825396826</v>
       </c>
       <c r="L22">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="M22">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1318,21 +1273,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K23">
-        <v>0.6808510638297872</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L23">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="M23">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1344,21 +1299,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K24">
-        <v>0.64</v>
+        <v>0.6511627906976745</v>
       </c>
       <c r="L24">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M24">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1370,21 +1325,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K25">
-        <v>0.6205882352941177</v>
+        <v>0.6029411764705882</v>
       </c>
       <c r="L25">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="M25">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1396,21 +1351,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K26">
         <v>0.6</v>
       </c>
       <c r="L26">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M26">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1422,21 +1377,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K27">
-        <v>0.5774058577405857</v>
+        <v>0.6</v>
       </c>
       <c r="L27">
-        <v>138</v>
+        <v>30</v>
       </c>
       <c r="M27">
-        <v>138</v>
+        <v>30</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1448,21 +1403,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>101</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K28">
-        <v>0.574468085106383</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L28">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M28">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1474,21 +1429,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K29">
-        <v>0.5661016949152542</v>
+        <v>0.5774058577405857</v>
       </c>
       <c r="L29">
-        <v>167</v>
+        <v>138</v>
       </c>
       <c r="M29">
-        <v>167</v>
+        <v>138</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1500,21 +1455,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>128</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K30">
-        <v>0.5384615384615384</v>
+        <v>0.575</v>
       </c>
       <c r="L30">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="M30">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1526,15 +1481,15 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K31">
-        <v>0.5142857142857142</v>
+        <v>0.5538461538461539</v>
       </c>
       <c r="L31">
         <v>36</v>
@@ -1552,21 +1507,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K32">
-        <v>0.4943820224719101</v>
+        <v>0.5491525423728814</v>
       </c>
       <c r="L32">
-        <v>44</v>
+        <v>162</v>
       </c>
       <c r="M32">
-        <v>44</v>
+        <v>162</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1578,21 +1533,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>45</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K33">
-        <v>0.3717948717948718</v>
+        <v>0.5</v>
       </c>
       <c r="L33">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="M33">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1604,15 +1559,15 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>49</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K34">
-        <v>0.273972602739726</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="L34">
         <v>20</v>
@@ -1630,7 +1585,85 @@
         <v>0</v>
       </c>
       <c r="Q34">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17">
+      <c r="J35" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K35">
+        <v>0.449438202247191</v>
+      </c>
+      <c r="L35">
+        <v>40</v>
+      </c>
+      <c r="M35">
+        <v>40</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="10:17">
+      <c r="J36" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K36">
+        <v>0.3205128205128205</v>
+      </c>
+      <c r="L36">
+        <v>25</v>
+      </c>
+      <c r="M36">
+        <v>25</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
         <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K37">
+        <v>0.2876712328767123</v>
+      </c>
+      <c r="L37">
+        <v>21</v>
+      </c>
+      <c r="M37">
+        <v>21</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
